--- a/doc/AgileDoc/ProductBacklog.xlsx
+++ b/doc/AgileDoc/ProductBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CapstoneProject\peer-to-peer-lending-system\doc\AgileDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DF98CE-D780-48E0-9379-D70FDED5065E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853A88A0-3B96-4ABC-AF6E-0BE57DFC3B59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="16548" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -75,58 +75,7 @@
     <t>Draw Sequence Diagram</t>
   </si>
   <si>
-    <t>Implement Tester features</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Spelling test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Grammar test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Broken links test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Broken pages test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Missing files tetst</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Prohibited content test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Mobile layout test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Speed test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - JavaScript errors test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Favicons test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Cookie law test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Pages test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Contact details test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Server behavior test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Redirections test</t>
-  </si>
-  <si>
     <t>Implement Admin features</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Manage account</t>
   </si>
   <si>
     <t xml:space="preserve"> - Manage word repossitory</t>
@@ -151,9 +100,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - Elastic Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - SpringBoot, JPA, Hibernate</t>
   </si>
   <si>
     <t xml:space="preserve"> - React JS</t>
@@ -198,16 +144,22 @@
     <t xml:space="preserve"> - </t>
   </si>
   <si>
-    <t>Done</t>
+    <t xml:space="preserve"> - BigchainDB</t>
   </si>
   <si>
-    <t>Wait for review</t>
+    <t xml:space="preserve"> - Ethereum</t>
   </si>
   <si>
-    <t>Work in Progress</t>
+    <t>Implement User</t>
   </si>
   <si>
-    <t xml:space="preserve"> - BigchainDB</t>
+    <t xml:space="preserve"> - Make Deal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Make Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Verify User Account</t>
   </si>
 </sst>
 </file>
@@ -796,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1051"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -843,16 +795,9 @@
       <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26">
-        <v>3</v>
-      </c>
-      <c r="D3" s="27">
-        <f>C3*10</f>
-        <v>30</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
@@ -861,16 +806,9 @@
       <c r="B4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="26">
-        <v>3</v>
-      </c>
-      <c r="D4" s="27">
-        <f t="shared" ref="D4:D50" si="0">C4*10</f>
-        <v>30</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
@@ -879,16 +817,9 @@
       <c r="B5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="26">
-        <v>3</v>
-      </c>
-      <c r="D5" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
@@ -897,16 +828,9 @@
       <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="26">
-        <v>1</v>
-      </c>
-      <c r="D6" s="27">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
@@ -915,16 +839,9 @@
       <c r="B7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="30">
-        <v>2</v>
-      </c>
-      <c r="D7" s="27">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>58</v>
-      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
@@ -933,13 +850,8 @@
       <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="30">
-        <v>3</v>
-      </c>
-      <c r="D8" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -949,13 +861,8 @@
       <c r="B9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="30">
-        <v>3</v>
-      </c>
-      <c r="D9" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -963,58 +870,39 @@
         <v>10</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>55</v>
-      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="30" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="33" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
-      <c r="C11" s="30">
-        <v>4</v>
-      </c>
-      <c r="D11" s="27">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="33" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
-      <c r="C12" s="30">
-        <v>2</v>
-      </c>
-      <c r="D12" s="27">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="34" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
-      <c r="C13" s="30">
-        <v>2</v>
-      </c>
-      <c r="D13" s="27">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1022,226 +910,123 @@
         <v>11</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>55</v>
-      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="30" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="33" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
-      <c r="C15" s="30">
-        <v>5</v>
-      </c>
-      <c r="D15" s="27">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="33" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
-      <c r="C16" s="30">
-        <v>5</v>
-      </c>
-      <c r="D16" s="27">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="33" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
-      <c r="C17" s="30">
-        <v>3</v>
-      </c>
-      <c r="D17" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
-      <c r="B18" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="30">
-        <v>3</v>
-      </c>
-      <c r="D18" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
-      <c r="B19" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="30">
-        <v>3</v>
-      </c>
-      <c r="D19" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
-      <c r="B20" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="30">
-        <v>5</v>
-      </c>
-      <c r="D20" s="27">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="36"/>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
-      <c r="B21" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="30">
-        <v>3</v>
-      </c>
-      <c r="D21" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
-      <c r="B22" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="30">
-        <v>3</v>
-      </c>
-      <c r="D22" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
-      <c r="B23" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="30">
-        <v>3</v>
-      </c>
-      <c r="D23" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
-      <c r="B24" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="30">
-        <v>3</v>
-      </c>
-      <c r="D24" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="36"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
-      <c r="B25" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="30">
-        <v>3</v>
-      </c>
-      <c r="D25" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
-      <c r="B26" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="30">
-        <v>3</v>
-      </c>
-      <c r="D26" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="36"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
-      <c r="B27" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="30">
-        <v>3</v>
-      </c>
-      <c r="D27" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="36"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
-      <c r="B28" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="30">
-        <v>3</v>
-      </c>
-      <c r="D28" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="36"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
-      <c r="B29" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="30">
-        <v>3</v>
-      </c>
-      <c r="D29" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1249,58 +1034,39 @@
         <v>12</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>55</v>
-      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="30" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="44"/>
       <c r="B31" s="31" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
-      <c r="C31" s="30">
-        <v>2</v>
-      </c>
-      <c r="D31" s="27">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="36"/>
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="44"/>
       <c r="B32" s="31" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
-      <c r="C32" s="30">
-        <v>3</v>
-      </c>
-      <c r="D32" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="36"/>
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="31" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
-      <c r="C33" s="30">
-        <v>3</v>
-      </c>
-      <c r="D33" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="36"/>
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1308,239 +1074,147 @@
         <v>13</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
-      <c r="C34" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>55</v>
-      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="39"/>
       <c r="B35" s="31" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
-      <c r="C35" s="30">
-        <v>3</v>
-      </c>
-      <c r="D35" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E35" s="36" t="s">
-        <v>58</v>
-      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="36"/>
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="39"/>
       <c r="B36" s="31" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
-      <c r="C36" s="30">
-        <v>3</v>
-      </c>
-      <c r="D36" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>56</v>
-      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="37"/>
     </row>
     <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="39"/>
       <c r="B37" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
-      <c r="C37" s="30">
-        <v>3</v>
-      </c>
-      <c r="D37" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>56</v>
-      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="31" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
-      <c r="C38" s="30">
-        <v>3</v>
-      </c>
-      <c r="D38" s="27">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>58</v>
-      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="36"/>
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="38">
         <v>14</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
-      <c r="C39" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>55</v>
-      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="36"/>
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="39"/>
       <c r="B40" s="31" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
-      <c r="C40" s="30">
-        <v>5</v>
-      </c>
-      <c r="D40" s="27">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="36"/>
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="39"/>
       <c r="B41" s="31" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
-      <c r="C41" s="30">
-        <v>5</v>
-      </c>
-      <c r="D41" s="27">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="36"/>
     </row>
     <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="39"/>
       <c r="B42" s="31" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
-      <c r="C42" s="30">
-        <v>5</v>
-      </c>
-      <c r="D42" s="27">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="36"/>
     </row>
     <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="39"/>
       <c r="B43" s="31" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
-      <c r="C43" s="30">
-        <v>5</v>
-      </c>
-      <c r="D43" s="27">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="36"/>
     </row>
     <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="39"/>
       <c r="B44" s="31" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
-      <c r="C44" s="30">
-        <v>2</v>
-      </c>
-      <c r="D44" s="27">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>56</v>
-      </c>
+      <c r="C44" s="30"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="37"/>
     </row>
     <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="39"/>
       <c r="B45" s="31" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
-      <c r="C45" s="30">
-        <v>2</v>
-      </c>
-      <c r="D45" s="27">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>57</v>
-      </c>
+      <c r="C45" s="30"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="37"/>
     </row>
     <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="39"/>
       <c r="B46" s="31" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
-      <c r="C46" s="30">
-        <v>2</v>
-      </c>
-      <c r="D46" s="27">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="36"/>
     </row>
     <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="39"/>
       <c r="B47" s="31" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
-      <c r="C47" s="30">
-        <v>2</v>
-      </c>
-      <c r="D47" s="27">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="36"/>
     </row>
     <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="39"/>
       <c r="B48" s="31" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
-      <c r="C48" s="30">
-        <v>2</v>
-      </c>
-      <c r="D48" s="27">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="C48" s="30"/>
+      <c r="D48" s="27"/>
       <c r="E48" s="36"/>
     </row>
     <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="31" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
-      <c r="C49" s="30">
-        <v>2</v>
-      </c>
-      <c r="D49" s="27">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="27"/>
       <c r="E49" s="36"/>
     </row>
     <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1548,15 +1222,10 @@
         <v>15</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
-      <c r="C50" s="30">
-        <v>5</v>
-      </c>
-      <c r="D50" s="27">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
+      <c r="C50" s="30"/>
+      <c r="D50" s="27"/>
       <c r="E50" s="36"/>
     </row>
     <row r="51" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
